--- a/medicine/Psychotrope/Fantôme_(bière)/Fantôme_(bière).xlsx
+++ b/medicine/Psychotrope/Fantôme_(bière)/Fantôme_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me_(bi%C3%A8re)</t>
+          <t>Fantôme_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fantôme est une bière belge brassée à Soy dans la commune d'Érezée en province de Luxembourg.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me_(bi%C3%A8re)</t>
+          <t>Fantôme_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fantôme est brassée au centre du village de Soy à la limite de la Calestienne et de l'Ardenne. La brasserie Fantôme se trouve dans une ancienne fermette en pierre calcaire située au n°8 de la rue Préal le long de la N.807 à 5 km de Hotton et d'Érezée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me_(bi%C3%A8re)</t>
+          <t>Fantôme_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Fantôme a été fondée en 1988 par Dany Prignon et son père.
 Le nom Fantôme provient de la légende de Berthe de La Roche qui hante le château de La Roche-en-Ardenne situé dans la région.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4me_(bi%C3%A8re)</t>
+          <t>Fantôme_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie Fantôme produit et commercialise trois bières classiques ainsi que quatre bières de saison. Elles sont conditionnées en bouteilles de 75 cl.
 La Fantôme  est une bière blonde de 8 % d'alcool. Cette bière est douce et fruitée.
